--- a/biology/Médecine/Ordre_des_hygiénistes_dentaires_du_Québec/Ordre_des_hygiénistes_dentaires_du_Québec.xlsx
+++ b/biology/Médecine/Ordre_des_hygiénistes_dentaires_du_Québec/Ordre_des_hygiénistes_dentaires_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ordre_des_hygi%C3%A9nistes_dentaires_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_hygiénistes_dentaires_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Ordre des hygiénistes dentaires du Québec (OHDQ) est un ordre professionnel du Québec.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ordre_des_hygi%C3%A9nistes_dentaires_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_hygiénistes_dentaires_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est le 17 février 1975 que la profession d’hygiéniste dentaire fut reconnue officiellement au sein du Code des professions.
 C’est aussi en 1975 que l’on assiste aux premières cérémonies de remise de diplôme en techniques d’hygiène dentaire et que trente-deux (32) hygiénistes dentaires sont inscrits au premier tableau des membres de l’OHDQ. Les besoins urgents des Québécois, dont l’état de santé dentaire était non seulement pitoyable mais se classait parmi les pires en Amérique du Nord, ont fait que plus de 40 ans plus tard, la profession compte plus de 6 000 membres.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ordre_des_hygi%C3%A9nistes_dentaires_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_hygiénistes_dentaires_du_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Ordre des hygiénistes dentaires du Québec :
 assure la protection du public en veillant à la qualité de l’exercice de la profession ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ordre_des_hygi%C3%A9nistes_dentaires_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_hygiénistes_dentaires_du_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Vision</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'Ordre des hygiénistes dentaires du Québec vise :
 l'amélioration continue de la santé buccodentaire de toute la population en agissant en partenariat avec les autres professionnels de la santé ;
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ordre_des_hygi%C3%A9nistes_dentaires_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_hygiénistes_dentaires_du_Québec</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En vertu du Code des professions, les ordres professionnels doivent établir des lois et règlements[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En vertu du Code des professions, les ordres professionnels doivent établir des lois et règlements.
 </t>
         </is>
       </c>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ordre_des_hygi%C3%A9nistes_dentaires_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_hygiénistes_dentaires_du_Québec</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,10 +664,12 @@
           <t>Code de déontologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tel qu'en fait mention l'article 87 du Code des professions, un Code de déontologie doit être adopté par le Conseil d'administration de chacun des ordres professionnels. Ce Code de déontologie impose au professionnel des devoirs d'ordre général et particulier envers le public, les clients et la profession, notamment celui de s'acquitter de ses obligations professionnelles avec intégrité.
-Le Code de déontologie contient, entre autres, des dispositions déterminant les actes dérogatoires à la dignité de la profession, ainsi que des dispositions visant à préserver le secret professionnel[2].
+Le Code de déontologie contient, entre autres, des dispositions déterminant les actes dérogatoires à la dignité de la profession, ainsi que des dispositions visant à préserver le secret professionnel.
 </t>
         </is>
       </c>
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ordre_des_hygi%C3%A9nistes_dentaires_du_Qu%C3%A9bec</t>
+          <t>Ordre_des_hygiénistes_dentaires_du_Québec</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,7 +698,9 @@
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque année, en avril, l’Ordre des hygiénistes dentaires du Québec tient une activité spéciale pour souligner le Mois de la santé buccodentaire au Québec :
 2006, Le diabète et les soins de votre bouche
